--- a/en/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/_image/image.xlsx
+++ b/en/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/_image/image.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD975C31-9638-4D1F-A5A1-9F0522DAF554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7335" yWindow="2265" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +61,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +74,189 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446419</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>227827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A542E1-7E3C-46CE-8DFE-37D8F957D91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10047619" cy="6180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99770B2C-25F7-4FBF-BDC4-0703F3665517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="5429250"/>
+          <a:ext cx="9372600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF06A9F3-7638-475E-98EE-58AC3C58A7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067676" y="5724525"/>
+          <a:ext cx="971550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +521,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/en/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/_image/image.xlsx
+++ b/en/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/_image/image.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD975C31-9638-4D1F-A5A1-9F0522DAF554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC7FFE-6330-42A9-A969-0CC25884C477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2265" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,16 +87,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>446419</xdr:colOff>
+      <xdr:colOff>474990</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>227827</xdr:rowOff>
+      <xdr:rowOff>218304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A542E1-7E3C-46CE-8DFE-37D8F957D91F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08DA9EE-7322-469F-8791-B122AD303639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -113,7 +113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10047619" cy="6180952"/>
+          <a:ext cx="10076190" cy="6171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -124,23 +124,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99770B2C-25F7-4FBF-BDC4-0703F3665517}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF06A9F3-7638-475E-98EE-58AC3C58A7F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -148,8 +148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="5429250"/>
-          <a:ext cx="9372600" cy="304800"/>
+          <a:off x="8105776" y="5781675"/>
+          <a:ext cx="971550" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -189,25 +189,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>640557</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11814</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F90CD4-229D-4EF9-AD60-A42CCF9F1606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640557" y="5555456"/>
+          <a:ext cx="742857" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>631032</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>402432</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF06A9F3-7638-475E-98EE-58AC3C58A7F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99770B2C-25F7-4FBF-BDC4-0703F3665517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -215,8 +259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067676" y="5724525"/>
-          <a:ext cx="971550" cy="304800"/>
+          <a:off x="631032" y="5505450"/>
+          <a:ext cx="9372600" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -524,9 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
